--- a/resources/GSTR2/Notes_ApresRats.xlsx
+++ b/resources/GSTR2/Notes_ApresRats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GSTR2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8FC786-7599-48F0-813D-075AFC914600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA1D156-CCAE-4999-A3DA-55CCE05FC923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{335A8C19-2AA3-4ABA-B58B-0EDA2A5E21F3}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="114">
   <si>
     <t>CNE</t>
   </si>
@@ -79,64 +79,301 @@
     <t>Note_GSTR46</t>
   </si>
   <si>
-    <t>Gstr2_FN1</t>
-  </si>
-  <si>
-    <t>Gstr2_LN1</t>
-  </si>
-  <si>
-    <t>Gstr2_FN2</t>
-  </si>
-  <si>
-    <t>Gstr2_LN2</t>
-  </si>
-  <si>
-    <t>Gstr2_FN3</t>
-  </si>
-  <si>
-    <t>Gstr2_LN3</t>
-  </si>
-  <si>
-    <t>Gstr2_FN4</t>
-  </si>
-  <si>
-    <t>Gstr2_LN4</t>
-  </si>
-  <si>
-    <t>Gstr2_FN5</t>
-  </si>
-  <si>
-    <t>Gstr2_LN5</t>
-  </si>
-  <si>
-    <t>Gstr2_FN6</t>
-  </si>
-  <si>
-    <t>Gstr2_LN6</t>
-  </si>
-  <si>
-    <t>Gstr2_FN7</t>
-  </si>
-  <si>
-    <t>Gstr2_LN7</t>
-  </si>
-  <si>
-    <t>Gstr2_FN8</t>
-  </si>
-  <si>
-    <t>Gstr2_LN8</t>
-  </si>
-  <si>
-    <t>Gstr2_FN9</t>
-  </si>
-  <si>
-    <t>Gstr2_LN9</t>
-  </si>
-  <si>
-    <t>Gstr2_FN10</t>
-  </si>
-  <si>
-    <t>Gstr2_LN10</t>
+    <t>Orli</t>
+  </si>
+  <si>
+    <t>Susan Daniels</t>
+  </si>
+  <si>
+    <t>Hedda</t>
+  </si>
+  <si>
+    <t>Raymond Goodwin</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>Leroy Ray</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>Joan Jones</t>
+  </si>
+  <si>
+    <t>Cain</t>
+  </si>
+  <si>
+    <t>Sebastian Ballard</t>
+  </si>
+  <si>
+    <t>Clementine</t>
+  </si>
+  <si>
+    <t>Winter Larson</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Owen Horton</t>
+  </si>
+  <si>
+    <t>Eve</t>
+  </si>
+  <si>
+    <t>Kimberley Arnold</t>
+  </si>
+  <si>
+    <t>Josiah</t>
+  </si>
+  <si>
+    <t>Lacy Gardner</t>
+  </si>
+  <si>
+    <t>Ainsley</t>
+  </si>
+  <si>
+    <t>Molly Livingston</t>
+  </si>
+  <si>
+    <t>Gwendolyn</t>
+  </si>
+  <si>
+    <t>Carol Knowles</t>
+  </si>
+  <si>
+    <t>Quon</t>
+  </si>
+  <si>
+    <t>Michael Brown</t>
+  </si>
+  <si>
+    <t>Halla</t>
+  </si>
+  <si>
+    <t>Lillian Greer</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Ishmael Donovan</t>
+  </si>
+  <si>
+    <t>Daria</t>
+  </si>
+  <si>
+    <t>Kenyon Booker</t>
+  </si>
+  <si>
+    <t>Frances</t>
+  </si>
+  <si>
+    <t>Cody Martinez</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Roth Downs</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>Justin Warren</t>
+  </si>
+  <si>
+    <t>Stacey</t>
+  </si>
+  <si>
+    <t>Malachi Vazquez</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Nayda Davenport</t>
+  </si>
+  <si>
+    <t>MacKenzie</t>
+  </si>
+  <si>
+    <t>Hammett Barber</t>
+  </si>
+  <si>
+    <t>Zahir</t>
+  </si>
+  <si>
+    <t>Cole Lang</t>
+  </si>
+  <si>
+    <t>Ramona</t>
+  </si>
+  <si>
+    <t>Branden Mcconnell</t>
+  </si>
+  <si>
+    <t>Herrod</t>
+  </si>
+  <si>
+    <t>Aurora Cortez</t>
+  </si>
+  <si>
+    <t>Arden</t>
+  </si>
+  <si>
+    <t>Chanda Lott</t>
+  </si>
+  <si>
+    <t>Kareem</t>
+  </si>
+  <si>
+    <t>Adria Drake</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Ivana Fowler</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Blossom Flowers</t>
+  </si>
+  <si>
+    <t>Chloe</t>
+  </si>
+  <si>
+    <t>Rowan Steele</t>
+  </si>
+  <si>
+    <t>MacKensie</t>
+  </si>
+  <si>
+    <t>Chastity Wood</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>Nomlanga Daugherty</t>
+  </si>
+  <si>
+    <t>Kylee</t>
+  </si>
+  <si>
+    <t>Kirsten Harrell</t>
+  </si>
+  <si>
+    <t>Prescott</t>
+  </si>
+  <si>
+    <t>Nola Ferguson</t>
+  </si>
+  <si>
+    <t>Maggy</t>
+  </si>
+  <si>
+    <t>Kirestin Lyons</t>
+  </si>
+  <si>
+    <t>Madaline</t>
+  </si>
+  <si>
+    <t>Callum Strickland</t>
+  </si>
+  <si>
+    <t>Xenos</t>
+  </si>
+  <si>
+    <t>Vance O'donnell</t>
+  </si>
+  <si>
+    <t>Kenyon</t>
+  </si>
+  <si>
+    <t>Amy Morgan</t>
+  </si>
+  <si>
+    <t>Reuben</t>
+  </si>
+  <si>
+    <t>Craig Vance</t>
+  </si>
+  <si>
+    <t>Flynn</t>
+  </si>
+  <si>
+    <t>India Richmond</t>
+  </si>
+  <si>
+    <t>Camille</t>
+  </si>
+  <si>
+    <t>Charity Hays</t>
+  </si>
+  <si>
+    <t>Orson</t>
+  </si>
+  <si>
+    <t>Avye Gilbert</t>
+  </si>
+  <si>
+    <t>Mariko</t>
+  </si>
+  <si>
+    <t>Sonya Welch</t>
+  </si>
+  <si>
+    <t>Dale</t>
+  </si>
+  <si>
+    <t>Jana Diaz</t>
+  </si>
+  <si>
+    <t>Cathleen</t>
+  </si>
+  <si>
+    <t>Owen Mccullough</t>
+  </si>
+  <si>
+    <t>Iola</t>
+  </si>
+  <si>
+    <t>Cooper Owens</t>
+  </si>
+  <si>
+    <t>George</t>
+  </si>
+  <si>
+    <t>Sydnee Howe</t>
+  </si>
+  <si>
+    <t>Alyssa</t>
+  </si>
+  <si>
+    <t>Katelyn Kaufman</t>
+  </si>
+  <si>
+    <t>Dexter Kirkland</t>
+  </si>
+  <si>
+    <t>Callie</t>
+  </si>
+  <si>
+    <t>Destiny Henson</t>
+  </si>
+  <si>
+    <t>Shad</t>
+  </si>
+  <si>
+    <t>Wynne Mendoza</t>
   </si>
 </sst>
 </file>
@@ -497,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B6ACE8C-323D-4925-8C4C-1DD22A6AA664}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -560,46 +797,46 @@
         <v>18000001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>15</v>
-      </c>
-      <c r="G2">
-        <v>12</v>
-      </c>
-      <c r="H2">
-        <v>12</v>
-      </c>
-      <c r="I2">
-        <v>19</v>
-      </c>
-      <c r="J2">
-        <v>17</v>
-      </c>
-      <c r="K2">
-        <v>12</v>
-      </c>
-      <c r="L2">
-        <v>12</v>
-      </c>
-      <c r="M2">
-        <v>12</v>
-      </c>
-      <c r="N2">
-        <v>12</v>
-      </c>
-      <c r="O2">
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="D2" s="2">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2">
+        <v>14</v>
+      </c>
+      <c r="M2" s="2">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -607,46 +844,46 @@
         <v>18000002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2">
         <v>10</v>
       </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>19</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
-      </c>
-      <c r="J3">
-        <v>8</v>
-      </c>
-      <c r="K3">
-        <v>16</v>
-      </c>
-      <c r="L3">
-        <v>12</v>
-      </c>
-      <c r="M3">
-        <v>13</v>
-      </c>
-      <c r="N3">
-        <v>15</v>
-      </c>
-      <c r="O3">
-        <v>12</v>
+      <c r="L3" s="2">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>12</v>
+      </c>
+      <c r="N3" s="2">
+        <v>7</v>
+      </c>
+      <c r="O3" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -654,46 +891,46 @@
         <v>18000003</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>19</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>18</v>
-      </c>
-      <c r="I4">
+      <c r="D4" s="2">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2">
+        <v>12</v>
+      </c>
+      <c r="J4" s="2">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2">
         <v>10</v>
       </c>
-      <c r="J4">
-        <v>18</v>
-      </c>
-      <c r="K4">
-        <v>13</v>
-      </c>
-      <c r="L4">
-        <v>13</v>
-      </c>
-      <c r="M4">
-        <v>19</v>
-      </c>
-      <c r="N4">
-        <v>16</v>
-      </c>
-      <c r="O4">
-        <v>13</v>
+      <c r="M4" s="2">
+        <v>15</v>
+      </c>
+      <c r="N4" s="2">
+        <v>12</v>
+      </c>
+      <c r="O4" s="2">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -701,46 +938,46 @@
         <v>18000004</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
+      <c r="D5" s="2">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2">
         <v>11</v>
       </c>
-      <c r="E5">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
-      <c r="H5">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>19</v>
-      </c>
-      <c r="J5">
-        <v>10</v>
-      </c>
-      <c r="K5">
-        <v>16</v>
-      </c>
-      <c r="L5">
-        <v>17</v>
-      </c>
-      <c r="M5">
-        <v>16</v>
-      </c>
-      <c r="N5">
-        <v>10</v>
-      </c>
-      <c r="O5">
-        <v>12</v>
+      <c r="F5" s="2">
+        <v>8</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2">
+        <v>6</v>
+      </c>
+      <c r="K5" s="2">
+        <v>16</v>
+      </c>
+      <c r="L5" s="2">
+        <v>12</v>
+      </c>
+      <c r="M5" s="2">
+        <v>12</v>
+      </c>
+      <c r="N5" s="2">
+        <v>11</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -748,46 +985,46 @@
         <v>18000005</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>19</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>12</v>
-      </c>
-      <c r="G6">
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6">
-        <v>13</v>
-      </c>
-      <c r="J6">
-        <v>11</v>
-      </c>
-      <c r="K6">
-        <v>12</v>
-      </c>
-      <c r="L6">
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2">
         <v>10</v>
       </c>
-      <c r="M6">
-        <v>19</v>
-      </c>
-      <c r="N6">
-        <v>18</v>
-      </c>
-      <c r="O6">
-        <v>10</v>
+      <c r="I6" s="2">
+        <v>14</v>
+      </c>
+      <c r="J6" s="2">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2">
+        <v>15</v>
+      </c>
+      <c r="L6" s="2">
+        <v>7</v>
+      </c>
+      <c r="M6" s="2">
+        <v>12</v>
+      </c>
+      <c r="N6" s="2">
+        <v>15</v>
+      </c>
+      <c r="O6" s="2">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -795,46 +1032,46 @@
         <v>18000006</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7">
-        <v>12</v>
-      </c>
-      <c r="E7">
-        <v>16</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2">
+        <v>12</v>
+      </c>
+      <c r="G7" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2">
+        <v>14</v>
+      </c>
+      <c r="I7" s="2">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2">
         <v>19</v>
       </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>15</v>
-      </c>
-      <c r="I7">
-        <v>12</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
-      <c r="K7">
-        <v>10</v>
-      </c>
-      <c r="L7">
-        <v>16</v>
-      </c>
-      <c r="M7">
-        <v>13</v>
-      </c>
-      <c r="N7">
-        <v>19</v>
-      </c>
-      <c r="O7">
-        <v>18</v>
+      <c r="K7" s="2">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2">
+        <v>17</v>
+      </c>
+      <c r="N7" s="2">
+        <v>16</v>
+      </c>
+      <c r="O7" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -842,46 +1079,46 @@
         <v>18000007</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8">
-        <v>12</v>
-      </c>
-      <c r="E8">
-        <v>12</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="2">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2">
+        <v>19</v>
+      </c>
+      <c r="F8" s="2">
         <v>10</v>
       </c>
-      <c r="G8">
-        <v>9</v>
-      </c>
-      <c r="H8">
-        <v>17</v>
-      </c>
-      <c r="I8">
-        <v>12</v>
-      </c>
-      <c r="J8">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <v>12</v>
-      </c>
-      <c r="L8">
-        <v>12</v>
-      </c>
-      <c r="M8">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>12</v>
-      </c>
-      <c r="O8">
+      <c r="G8" s="2">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2">
+        <v>15</v>
+      </c>
+      <c r="I8" s="2">
+        <v>13</v>
+      </c>
+      <c r="J8" s="2">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2">
         <v>11</v>
+      </c>
+      <c r="M8" s="2">
+        <v>12</v>
+      </c>
+      <c r="N8" s="2">
+        <v>10</v>
+      </c>
+      <c r="O8" s="2">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -889,46 +1126,46 @@
         <v>18000008</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-      <c r="E9">
-        <v>15</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>18</v>
-      </c>
-      <c r="I9">
-        <v>15</v>
-      </c>
-      <c r="J9">
-        <v>9</v>
-      </c>
-      <c r="K9">
-        <v>17</v>
-      </c>
-      <c r="L9">
-        <v>16</v>
-      </c>
-      <c r="M9">
-        <v>18</v>
-      </c>
-      <c r="N9">
-        <v>12</v>
-      </c>
-      <c r="O9">
-        <v>17</v>
+      <c r="D9" s="2">
+        <v>7</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2">
+        <v>13</v>
+      </c>
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+      <c r="I9" s="2">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2">
+        <v>15</v>
+      </c>
+      <c r="M9" s="2">
+        <v>8</v>
+      </c>
+      <c r="N9" s="2">
+        <v>15</v>
+      </c>
+      <c r="O9" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -936,46 +1173,46 @@
         <v>18000009</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
-      </c>
-      <c r="H10">
-        <v>19</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <v>9</v>
-      </c>
-      <c r="L10">
-        <v>12</v>
-      </c>
-      <c r="M10">
-        <v>12</v>
-      </c>
-      <c r="N10">
-        <v>17</v>
-      </c>
-      <c r="O10">
-        <v>12</v>
+      <c r="D10" s="2">
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>14</v>
+      </c>
+      <c r="F10" s="2">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2">
+        <v>9</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
+      <c r="L10" s="2">
+        <v>13</v>
+      </c>
+      <c r="M10" s="2">
+        <v>17</v>
+      </c>
+      <c r="N10" s="2">
+        <v>12</v>
+      </c>
+      <c r="O10" s="2">
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -983,46 +1220,1926 @@
         <v>18000010</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>14</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>12</v>
-      </c>
-      <c r="H11">
-        <v>18</v>
-      </c>
-      <c r="I11">
+      <c r="D11" s="2">
+        <v>17</v>
+      </c>
+      <c r="E11" s="2">
+        <v>9</v>
+      </c>
+      <c r="F11" s="2">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2">
+        <v>15</v>
+      </c>
+      <c r="L11" s="2">
+        <v>17</v>
+      </c>
+      <c r="M11" s="2">
+        <v>8</v>
+      </c>
+      <c r="N11" s="2">
+        <v>11</v>
+      </c>
+      <c r="O11" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>18000011</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2">
+        <v>12</v>
+      </c>
+      <c r="J12" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2">
+        <v>14</v>
+      </c>
+      <c r="M12" s="2">
+        <v>18</v>
+      </c>
+      <c r="N12" s="2">
+        <v>11</v>
+      </c>
+      <c r="O12" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>18000012</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2">
+        <v>12</v>
+      </c>
+      <c r="G13" s="2">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2">
+        <v>17</v>
+      </c>
+      <c r="J13" s="2">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2">
+        <v>11</v>
+      </c>
+      <c r="M13" s="2">
+        <v>16</v>
+      </c>
+      <c r="N13" s="2">
+        <v>13</v>
+      </c>
+      <c r="O13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>18000013</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+      <c r="E14" s="2">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2">
+        <v>12</v>
+      </c>
+      <c r="G14" s="2">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2">
+        <v>18</v>
+      </c>
+      <c r="I14" s="2">
+        <v>7</v>
+      </c>
+      <c r="J14" s="2">
+        <v>17</v>
+      </c>
+      <c r="K14" s="2">
         <v>19</v>
       </c>
-      <c r="J11">
-        <v>12</v>
-      </c>
-      <c r="K11">
+      <c r="L14" s="2">
+        <v>15</v>
+      </c>
+      <c r="M14" s="2">
+        <v>8</v>
+      </c>
+      <c r="N14" s="2">
+        <v>13</v>
+      </c>
+      <c r="O14" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>18000014</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2">
+        <v>17</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
         <v>10</v>
       </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="M11">
-        <v>16</v>
-      </c>
-      <c r="N11">
-        <v>12</v>
-      </c>
-      <c r="O11">
-        <v>17</v>
+      <c r="H15" s="2">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2">
+        <v>13</v>
+      </c>
+      <c r="J15" s="2">
+        <v>12</v>
+      </c>
+      <c r="K15" s="2">
+        <v>13</v>
+      </c>
+      <c r="L15" s="2">
+        <v>7</v>
+      </c>
+      <c r="M15" s="2">
+        <v>8</v>
+      </c>
+      <c r="N15" s="2">
+        <v>14</v>
+      </c>
+      <c r="O15" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>18000015</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2">
+        <v>18</v>
+      </c>
+      <c r="E16" s="2">
+        <v>19</v>
+      </c>
+      <c r="F16" s="2">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2">
+        <v>12</v>
+      </c>
+      <c r="I16" s="2">
+        <v>14</v>
+      </c>
+      <c r="J16" s="2">
+        <v>12</v>
+      </c>
+      <c r="K16" s="2">
+        <v>14</v>
+      </c>
+      <c r="L16" s="2">
+        <v>17</v>
+      </c>
+      <c r="M16" s="2">
+        <v>13</v>
+      </c>
+      <c r="N16" s="2">
+        <v>18</v>
+      </c>
+      <c r="O16" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>18000016</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="2">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>17</v>
+      </c>
+      <c r="F17" s="2">
+        <v>12</v>
+      </c>
+      <c r="G17" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2">
+        <v>9</v>
+      </c>
+      <c r="I17" s="2">
+        <v>14</v>
+      </c>
+      <c r="J17" s="2">
+        <v>18</v>
+      </c>
+      <c r="K17" s="2">
+        <v>5</v>
+      </c>
+      <c r="L17" s="2">
+        <v>10</v>
+      </c>
+      <c r="M17" s="2">
+        <v>12</v>
+      </c>
+      <c r="N17" s="2">
+        <v>16</v>
+      </c>
+      <c r="O17" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>18000017</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="2">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2">
+        <v>13</v>
+      </c>
+      <c r="F18" s="2">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>15</v>
+      </c>
+      <c r="J18" s="2">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2">
+        <v>12</v>
+      </c>
+      <c r="L18" s="2">
+        <v>9</v>
+      </c>
+      <c r="M18" s="2">
+        <v>11</v>
+      </c>
+      <c r="N18" s="2">
+        <v>12</v>
+      </c>
+      <c r="O18" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>18000018</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2">
+        <v>8</v>
+      </c>
+      <c r="J19" s="2">
+        <v>7</v>
+      </c>
+      <c r="K19" s="2">
+        <v>18</v>
+      </c>
+      <c r="L19" s="2">
+        <v>12</v>
+      </c>
+      <c r="M19" s="2">
+        <v>13</v>
+      </c>
+      <c r="N19" s="2">
+        <v>18</v>
+      </c>
+      <c r="O19" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>18000019</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2">
+        <v>10</v>
+      </c>
+      <c r="E20" s="2">
+        <v>15</v>
+      </c>
+      <c r="F20" s="2">
+        <v>8</v>
+      </c>
+      <c r="G20" s="2">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2">
+        <v>9</v>
+      </c>
+      <c r="I20" s="2">
+        <v>14</v>
+      </c>
+      <c r="J20" s="2">
+        <v>14</v>
+      </c>
+      <c r="K20" s="2">
+        <v>16</v>
+      </c>
+      <c r="L20" s="2">
+        <v>8</v>
+      </c>
+      <c r="M20" s="2">
+        <v>16</v>
+      </c>
+      <c r="N20" s="2">
+        <v>18</v>
+      </c>
+      <c r="O20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>18000020</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="2">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2">
+        <v>7</v>
+      </c>
+      <c r="F21" s="2">
+        <v>8</v>
+      </c>
+      <c r="G21" s="2">
+        <v>14</v>
+      </c>
+      <c r="H21" s="2">
+        <v>13</v>
+      </c>
+      <c r="I21" s="2">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2">
+        <v>18</v>
+      </c>
+      <c r="K21" s="2">
+        <v>15</v>
+      </c>
+      <c r="L21" s="2">
+        <v>18</v>
+      </c>
+      <c r="M21" s="2">
+        <v>12</v>
+      </c>
+      <c r="N21" s="2">
+        <v>18</v>
+      </c>
+      <c r="O21" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>18000021</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2">
+        <v>8</v>
+      </c>
+      <c r="G22" s="2">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2">
+        <v>14</v>
+      </c>
+      <c r="I22" s="2">
+        <v>14</v>
+      </c>
+      <c r="J22" s="2">
+        <v>19</v>
+      </c>
+      <c r="K22" s="2">
+        <v>16</v>
+      </c>
+      <c r="L22" s="2">
+        <v>14</v>
+      </c>
+      <c r="M22" s="2">
+        <v>16</v>
+      </c>
+      <c r="N22" s="2">
+        <v>7</v>
+      </c>
+      <c r="O22" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>18000022</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="2">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2">
+        <v>16</v>
+      </c>
+      <c r="I23" s="2">
+        <v>12</v>
+      </c>
+      <c r="J23" s="2">
+        <v>16</v>
+      </c>
+      <c r="K23" s="2">
+        <v>8</v>
+      </c>
+      <c r="L23" s="2">
+        <v>7</v>
+      </c>
+      <c r="M23" s="2">
+        <v>18</v>
+      </c>
+      <c r="N23" s="2">
+        <v>7</v>
+      </c>
+      <c r="O23" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>18000023</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" s="2">
+        <v>16</v>
+      </c>
+      <c r="F24" s="2">
+        <v>12</v>
+      </c>
+      <c r="G24" s="2">
+        <v>18</v>
+      </c>
+      <c r="H24" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8</v>
+      </c>
+      <c r="J24" s="2">
+        <v>19</v>
+      </c>
+      <c r="K24" s="2">
+        <v>13</v>
+      </c>
+      <c r="L24" s="2">
+        <v>15</v>
+      </c>
+      <c r="M24" s="2">
+        <v>16</v>
+      </c>
+      <c r="N24" s="2">
+        <v>18</v>
+      </c>
+      <c r="O24" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>18000024</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="2">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2">
+        <v>8</v>
+      </c>
+      <c r="G25" s="2">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2">
+        <v>15</v>
+      </c>
+      <c r="J25" s="2">
+        <v>17</v>
+      </c>
+      <c r="K25" s="2">
+        <v>5</v>
+      </c>
+      <c r="L25" s="2">
+        <v>11</v>
+      </c>
+      <c r="M25" s="2">
+        <v>12</v>
+      </c>
+      <c r="N25" s="2">
+        <v>9</v>
+      </c>
+      <c r="O25" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>18000025</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="2">
+        <v>16</v>
+      </c>
+      <c r="E26" s="2">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2">
+        <v>13</v>
+      </c>
+      <c r="H26" s="2">
+        <v>10</v>
+      </c>
+      <c r="I26" s="2">
+        <v>14</v>
+      </c>
+      <c r="J26" s="2">
+        <v>6</v>
+      </c>
+      <c r="K26" s="2">
+        <v>12</v>
+      </c>
+      <c r="L26" s="2">
+        <v>12</v>
+      </c>
+      <c r="M26" s="2">
+        <v>9</v>
+      </c>
+      <c r="N26" s="2">
+        <v>17</v>
+      </c>
+      <c r="O26" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>18000026</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="2">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2">
+        <v>14</v>
+      </c>
+      <c r="F27" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" s="2">
+        <v>13</v>
+      </c>
+      <c r="H27" s="2">
+        <v>14</v>
+      </c>
+      <c r="I27" s="2">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2">
+        <v>8</v>
+      </c>
+      <c r="K27" s="2">
+        <v>7</v>
+      </c>
+      <c r="L27" s="2">
+        <v>7</v>
+      </c>
+      <c r="M27" s="2">
+        <v>15</v>
+      </c>
+      <c r="N27" s="2">
+        <v>15</v>
+      </c>
+      <c r="O27" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>18000027</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="2">
+        <v>16</v>
+      </c>
+      <c r="E28" s="2">
+        <v>16</v>
+      </c>
+      <c r="F28" s="2">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2">
+        <v>13</v>
+      </c>
+      <c r="I28" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" s="2">
+        <v>12</v>
+      </c>
+      <c r="K28" s="2">
+        <v>19</v>
+      </c>
+      <c r="L28" s="2">
+        <v>17</v>
+      </c>
+      <c r="M28" s="2">
+        <v>14</v>
+      </c>
+      <c r="N28" s="2">
+        <v>9</v>
+      </c>
+      <c r="O28" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>18000028</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="2">
+        <v>18</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2">
+        <v>14</v>
+      </c>
+      <c r="J29" s="2">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2">
+        <v>12</v>
+      </c>
+      <c r="L29" s="2">
+        <v>12</v>
+      </c>
+      <c r="M29" s="2">
+        <v>15</v>
+      </c>
+      <c r="N29" s="2">
+        <v>9</v>
+      </c>
+      <c r="O29" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>18000029</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="2">
+        <v>12</v>
+      </c>
+      <c r="E30" s="2">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2">
+        <v>16</v>
+      </c>
+      <c r="H30" s="2">
+        <v>18</v>
+      </c>
+      <c r="I30" s="2">
+        <v>9</v>
+      </c>
+      <c r="J30" s="2">
+        <v>10</v>
+      </c>
+      <c r="K30" s="2">
+        <v>16</v>
+      </c>
+      <c r="L30" s="2">
+        <v>14</v>
+      </c>
+      <c r="M30" s="2">
+        <v>7</v>
+      </c>
+      <c r="N30" s="2">
+        <v>16</v>
+      </c>
+      <c r="O30" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>18000030</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="2">
+        <v>18</v>
+      </c>
+      <c r="E31" s="2">
+        <v>12</v>
+      </c>
+      <c r="F31" s="2">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2">
+        <v>14</v>
+      </c>
+      <c r="H31" s="2">
+        <v>12</v>
+      </c>
+      <c r="I31" s="2">
+        <v>6</v>
+      </c>
+      <c r="J31" s="2">
+        <v>18</v>
+      </c>
+      <c r="K31" s="2">
+        <v>12</v>
+      </c>
+      <c r="L31" s="2">
+        <v>15</v>
+      </c>
+      <c r="M31" s="2">
+        <v>16</v>
+      </c>
+      <c r="N31" s="2">
+        <v>15</v>
+      </c>
+      <c r="O31" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>18000031</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="2">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
+        <v>12</v>
+      </c>
+      <c r="G32" s="2">
+        <v>14</v>
+      </c>
+      <c r="H32" s="2">
+        <v>17</v>
+      </c>
+      <c r="I32" s="2">
+        <v>12</v>
+      </c>
+      <c r="J32" s="2">
+        <v>12</v>
+      </c>
+      <c r="K32" s="2">
+        <v>11</v>
+      </c>
+      <c r="L32" s="2">
+        <v>17</v>
+      </c>
+      <c r="M32" s="2">
+        <v>8</v>
+      </c>
+      <c r="N32" s="2">
+        <v>17</v>
+      </c>
+      <c r="O32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>18000032</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="2">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2">
+        <v>8</v>
+      </c>
+      <c r="F33" s="2">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2">
+        <v>18</v>
+      </c>
+      <c r="H33" s="2">
+        <v>13</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
+        <v>18</v>
+      </c>
+      <c r="K33" s="2">
+        <v>14</v>
+      </c>
+      <c r="L33" s="2">
+        <v>17</v>
+      </c>
+      <c r="M33" s="2">
+        <v>12</v>
+      </c>
+      <c r="N33" s="2">
+        <v>19</v>
+      </c>
+      <c r="O33" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>18000033</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="2">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2">
+        <v>12</v>
+      </c>
+      <c r="F34" s="2">
+        <v>12</v>
+      </c>
+      <c r="G34" s="2">
+        <v>18</v>
+      </c>
+      <c r="H34" s="2">
+        <v>14</v>
+      </c>
+      <c r="I34" s="2">
+        <v>8</v>
+      </c>
+      <c r="J34" s="2">
+        <v>8</v>
+      </c>
+      <c r="K34" s="2">
+        <v>14</v>
+      </c>
+      <c r="L34" s="2">
+        <v>10</v>
+      </c>
+      <c r="M34" s="2">
+        <v>14</v>
+      </c>
+      <c r="N34" s="2">
+        <v>12</v>
+      </c>
+      <c r="O34" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>18000034</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="2">
+        <v>16</v>
+      </c>
+      <c r="E35" s="2">
+        <v>5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>15</v>
+      </c>
+      <c r="G35" s="2">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2">
+        <v>9</v>
+      </c>
+      <c r="I35" s="2">
+        <v>14</v>
+      </c>
+      <c r="J35" s="2">
+        <v>9</v>
+      </c>
+      <c r="K35" s="2">
+        <v>9</v>
+      </c>
+      <c r="L35" s="2">
+        <v>6</v>
+      </c>
+      <c r="M35" s="2">
+        <v>9</v>
+      </c>
+      <c r="N35" s="2">
+        <v>20</v>
+      </c>
+      <c r="O35" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>18000035</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="2">
+        <v>12</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>8</v>
+      </c>
+      <c r="G36" s="2">
+        <v>17</v>
+      </c>
+      <c r="H36" s="2">
+        <v>14</v>
+      </c>
+      <c r="I36" s="2">
+        <v>12</v>
+      </c>
+      <c r="J36" s="2">
+        <v>20</v>
+      </c>
+      <c r="K36" s="2">
+        <v>9</v>
+      </c>
+      <c r="L36" s="2">
+        <v>13</v>
+      </c>
+      <c r="M36" s="2">
+        <v>12</v>
+      </c>
+      <c r="N36" s="2">
+        <v>8</v>
+      </c>
+      <c r="O36" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>18000036</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="2">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2">
+        <v>8</v>
+      </c>
+      <c r="F37" s="2">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2">
+        <v>15</v>
+      </c>
+      <c r="H37" s="2">
+        <v>12</v>
+      </c>
+      <c r="I37" s="2">
+        <v>8</v>
+      </c>
+      <c r="J37" s="2">
+        <v>13</v>
+      </c>
+      <c r="K37" s="2">
+        <v>18</v>
+      </c>
+      <c r="L37" s="2">
+        <v>17</v>
+      </c>
+      <c r="M37" s="2">
+        <v>17</v>
+      </c>
+      <c r="N37" s="2">
+        <v>19</v>
+      </c>
+      <c r="O37" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>18000037</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D38" s="2">
+        <v>12</v>
+      </c>
+      <c r="E38" s="2">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2">
+        <v>8</v>
+      </c>
+      <c r="I38" s="2">
+        <v>13</v>
+      </c>
+      <c r="J38" s="2">
+        <v>8</v>
+      </c>
+      <c r="K38" s="2">
+        <v>18</v>
+      </c>
+      <c r="L38" s="2">
+        <v>8</v>
+      </c>
+      <c r="M38" s="2">
+        <v>12</v>
+      </c>
+      <c r="N38" s="2">
+        <v>12</v>
+      </c>
+      <c r="O38" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>18000038</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D39" s="2">
+        <v>17</v>
+      </c>
+      <c r="E39" s="2">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2">
+        <v>14</v>
+      </c>
+      <c r="G39" s="2">
+        <v>13</v>
+      </c>
+      <c r="H39" s="2">
+        <v>10</v>
+      </c>
+      <c r="I39" s="2">
+        <v>8</v>
+      </c>
+      <c r="J39" s="2">
+        <v>12</v>
+      </c>
+      <c r="K39" s="2">
+        <v>8</v>
+      </c>
+      <c r="L39" s="2">
+        <v>14</v>
+      </c>
+      <c r="M39" s="2">
+        <v>11</v>
+      </c>
+      <c r="N39" s="2">
+        <v>19</v>
+      </c>
+      <c r="O39" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>18000039</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="2">
+        <v>12</v>
+      </c>
+      <c r="E40" s="2">
+        <v>17</v>
+      </c>
+      <c r="F40" s="2">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2">
+        <v>18</v>
+      </c>
+      <c r="I40" s="2">
+        <v>8</v>
+      </c>
+      <c r="J40" s="2">
+        <v>14</v>
+      </c>
+      <c r="K40" s="2">
+        <v>9</v>
+      </c>
+      <c r="L40" s="2">
+        <v>8</v>
+      </c>
+      <c r="M40" s="2">
+        <v>13</v>
+      </c>
+      <c r="N40" s="2">
+        <v>10</v>
+      </c>
+      <c r="O40" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>18000040</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="2">
+        <v>17</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6</v>
+      </c>
+      <c r="F41" s="2">
+        <v>14</v>
+      </c>
+      <c r="G41" s="2">
+        <v>15</v>
+      </c>
+      <c r="H41" s="2">
+        <v>9</v>
+      </c>
+      <c r="I41" s="2">
+        <v>8</v>
+      </c>
+      <c r="J41" s="2">
+        <v>8</v>
+      </c>
+      <c r="K41" s="2">
+        <v>16</v>
+      </c>
+      <c r="L41" s="2">
+        <v>13</v>
+      </c>
+      <c r="M41" s="2">
+        <v>16</v>
+      </c>
+      <c r="N41" s="2">
+        <v>13</v>
+      </c>
+      <c r="O41" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>18000041</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="2">
+        <v>12</v>
+      </c>
+      <c r="E42" s="2">
+        <v>13</v>
+      </c>
+      <c r="F42" s="2">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2">
+        <v>16</v>
+      </c>
+      <c r="H42" s="2">
+        <v>9</v>
+      </c>
+      <c r="I42" s="2">
+        <v>7</v>
+      </c>
+      <c r="J42" s="2">
+        <v>16</v>
+      </c>
+      <c r="K42" s="2">
+        <v>16</v>
+      </c>
+      <c r="L42" s="2">
+        <v>17</v>
+      </c>
+      <c r="M42" s="2">
+        <v>12</v>
+      </c>
+      <c r="N42" s="2">
+        <v>17</v>
+      </c>
+      <c r="O42" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>18000042</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="2">
+        <v>17</v>
+      </c>
+      <c r="E43" s="2">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2">
+        <v>10</v>
+      </c>
+      <c r="H43" s="2">
+        <v>18</v>
+      </c>
+      <c r="I43" s="2">
+        <v>17</v>
+      </c>
+      <c r="J43" s="2">
+        <v>16</v>
+      </c>
+      <c r="K43" s="2">
+        <v>16</v>
+      </c>
+      <c r="L43" s="2">
+        <v>14</v>
+      </c>
+      <c r="M43" s="2">
+        <v>18</v>
+      </c>
+      <c r="N43" s="2">
+        <v>12</v>
+      </c>
+      <c r="O43" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>18000043</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D44" s="2">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2">
+        <v>12</v>
+      </c>
+      <c r="G44" s="2">
+        <v>15</v>
+      </c>
+      <c r="H44" s="2">
+        <v>12</v>
+      </c>
+      <c r="I44" s="2">
+        <v>8</v>
+      </c>
+      <c r="J44" s="2">
+        <v>8</v>
+      </c>
+      <c r="K44" s="2">
+        <v>15</v>
+      </c>
+      <c r="L44" s="2">
+        <v>12</v>
+      </c>
+      <c r="M44" s="2">
+        <v>12</v>
+      </c>
+      <c r="N44" s="2">
+        <v>15</v>
+      </c>
+      <c r="O44" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>18000044</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D45" s="2">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2">
+        <v>13</v>
+      </c>
+      <c r="F45" s="2">
+        <v>12</v>
+      </c>
+      <c r="G45" s="2">
+        <v>17</v>
+      </c>
+      <c r="H45" s="2">
+        <v>13</v>
+      </c>
+      <c r="I45" s="2">
+        <v>9</v>
+      </c>
+      <c r="J45" s="2">
+        <v>8</v>
+      </c>
+      <c r="K45" s="2">
+        <v>15</v>
+      </c>
+      <c r="L45" s="2">
+        <v>8</v>
+      </c>
+      <c r="M45" s="2">
+        <v>12</v>
+      </c>
+      <c r="N45" s="2">
+        <v>10</v>
+      </c>
+      <c r="O45" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>18000045</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="2">
+        <v>12</v>
+      </c>
+      <c r="E46" s="2">
+        <v>16</v>
+      </c>
+      <c r="F46" s="2">
+        <v>9</v>
+      </c>
+      <c r="G46" s="2">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2">
+        <v>17</v>
+      </c>
+      <c r="I46" s="2">
+        <v>13</v>
+      </c>
+      <c r="J46" s="2">
+        <v>12</v>
+      </c>
+      <c r="K46" s="2">
+        <v>9</v>
+      </c>
+      <c r="L46" s="2">
+        <v>11</v>
+      </c>
+      <c r="M46" s="2">
+        <v>17</v>
+      </c>
+      <c r="N46" s="2">
+        <v>12</v>
+      </c>
+      <c r="O46" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>18000046</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D47" s="2">
+        <v>17</v>
+      </c>
+      <c r="E47" s="2">
+        <v>9</v>
+      </c>
+      <c r="F47" s="2">
+        <v>8</v>
+      </c>
+      <c r="G47" s="2">
+        <v>13</v>
+      </c>
+      <c r="H47" s="2">
+        <v>8</v>
+      </c>
+      <c r="I47" s="2">
+        <v>18</v>
+      </c>
+      <c r="J47" s="2">
+        <v>14</v>
+      </c>
+      <c r="K47" s="2">
+        <v>8</v>
+      </c>
+      <c r="L47" s="2">
+        <v>10</v>
+      </c>
+      <c r="M47" s="2">
+        <v>12</v>
+      </c>
+      <c r="N47" s="2">
+        <v>12</v>
+      </c>
+      <c r="O47" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>18000047</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="2">
+        <v>5</v>
+      </c>
+      <c r="E48" s="2">
+        <v>18</v>
+      </c>
+      <c r="F48" s="2">
+        <v>9</v>
+      </c>
+      <c r="G48" s="2">
+        <v>18</v>
+      </c>
+      <c r="H48" s="2">
+        <v>9</v>
+      </c>
+      <c r="I48" s="2">
+        <v>7</v>
+      </c>
+      <c r="J48" s="2">
+        <v>5</v>
+      </c>
+      <c r="K48" s="2">
+        <v>20</v>
+      </c>
+      <c r="L48" s="2">
+        <v>15</v>
+      </c>
+      <c r="M48" s="2">
+        <v>17</v>
+      </c>
+      <c r="N48" s="2">
+        <v>19</v>
+      </c>
+      <c r="O48" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>18000048</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="2">
+        <v>16</v>
+      </c>
+      <c r="E49" s="2">
+        <v>15</v>
+      </c>
+      <c r="F49" s="2">
+        <v>14</v>
+      </c>
+      <c r="G49" s="2">
+        <v>15</v>
+      </c>
+      <c r="H49" s="2">
+        <v>8</v>
+      </c>
+      <c r="I49" s="2">
+        <v>18</v>
+      </c>
+      <c r="J49" s="2">
+        <v>7</v>
+      </c>
+      <c r="K49" s="2">
+        <v>14</v>
+      </c>
+      <c r="L49" s="2">
+        <v>12</v>
+      </c>
+      <c r="M49" s="2">
+        <v>13</v>
+      </c>
+      <c r="N49" s="2">
+        <v>17</v>
+      </c>
+      <c r="O49" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>18000049</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="2">
+        <v>18</v>
+      </c>
+      <c r="E50" s="2">
+        <v>16</v>
+      </c>
+      <c r="F50" s="2">
+        <v>15</v>
+      </c>
+      <c r="G50" s="2">
+        <v>14</v>
+      </c>
+      <c r="H50" s="2">
+        <v>7</v>
+      </c>
+      <c r="I50" s="2">
+        <v>16</v>
+      </c>
+      <c r="J50" s="2">
+        <v>12</v>
+      </c>
+      <c r="K50" s="2">
+        <v>5</v>
+      </c>
+      <c r="L50" s="2">
+        <v>12</v>
+      </c>
+      <c r="M50" s="2">
+        <v>7</v>
+      </c>
+      <c r="N50" s="2">
+        <v>8</v>
+      </c>
+      <c r="O50" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>18000050</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="2">
+        <v>9</v>
+      </c>
+      <c r="E51" s="2">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2">
+        <v>17</v>
+      </c>
+      <c r="H51" s="2">
+        <v>17</v>
+      </c>
+      <c r="I51" s="2">
+        <v>9</v>
+      </c>
+      <c r="J51" s="2">
+        <v>9</v>
+      </c>
+      <c r="K51" s="2">
+        <v>20</v>
+      </c>
+      <c r="L51" s="2">
+        <v>17</v>
+      </c>
+      <c r="M51" s="2">
+        <v>16</v>
+      </c>
+      <c r="N51" s="2">
+        <v>17</v>
+      </c>
+      <c r="O51" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
